--- a/IDsMapping.xlsx
+++ b/IDsMapping.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roth_\Uni\1.Semester_WS1920\Algorithmen MMI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB27B41-E828-4AC8-BBA4-C69748FC7F66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9410700-2EB1-47D5-A4A6-3DEF62BAC8C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="444" windowWidth="18900" windowHeight="10980" xr2:uid="{3CCBDE61-6562-4498-99E4-B5911D7CAF8A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CCBDE61-6562-4498-99E4-B5911D7CAF8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$B$28</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -69,9 +72,6 @@
     <t>Öl</t>
   </si>
   <si>
-    <t>Gurkenschäler</t>
-  </si>
-  <si>
     <t>Salatbesteck</t>
   </si>
   <si>
@@ -100,6 +100,39 @@
   </si>
   <si>
     <t>GefäßFürGemüse</t>
+  </si>
+  <si>
+    <t>Kuchen:</t>
+  </si>
+  <si>
+    <t>Pizza:</t>
+  </si>
+  <si>
+    <t>Rührschüssel</t>
+  </si>
+  <si>
+    <t>Mixer</t>
+  </si>
+  <si>
+    <t>Sparschäler</t>
+  </si>
+  <si>
+    <t>SchüsselGuss</t>
+  </si>
+  <si>
+    <t>Topf</t>
+  </si>
+  <si>
+    <t>458105427683</t>
+  </si>
+  <si>
+    <t>595986814409</t>
+  </si>
+  <si>
+    <t>111043512305</t>
+  </si>
+  <si>
+    <t>323390938246</t>
   </si>
 </sst>
 </file>
@@ -123,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,13 +164,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -452,16 +502,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D55858-6FAC-4A98-9878-983856C9915C}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A23" sqref="A23:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -473,96 +523,147 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>14</v>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/IDsMapping.xlsx
+++ b/IDsMapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roth_\Uni\1.Semester_WS1920\Algorithmen MMI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roth_\Uni\1.Semester_WS1920\Algorithmen MMI\GitHub\Smart_Kitchen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9410700-2EB1-47D5-A4A6-3DEF62BAC8C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0063704E-37E6-4F36-94B1-CD495EBEC405}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CCBDE61-6562-4498-99E4-B5911D7CAF8A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Rührschüssel</t>
   </si>
   <si>
-    <t>Mixer</t>
-  </si>
-  <si>
     <t>Sparschäler</t>
   </si>
   <si>
@@ -133,6 +130,30 @@
   </si>
   <si>
     <t>323390938246</t>
+  </si>
+  <si>
+    <t>Ort</t>
+  </si>
+  <si>
+    <t>Besteckkasten</t>
+  </si>
+  <si>
+    <t>Löffel</t>
+  </si>
+  <si>
+    <t>Vorratsschrank</t>
+  </si>
+  <si>
+    <t>Geschirrschrank</t>
+  </si>
+  <si>
+    <t>Topfschrank</t>
+  </si>
+  <si>
+    <t>Utensilienschrank</t>
+  </si>
+  <si>
+    <t>Teigschaber</t>
   </si>
 </sst>
 </file>
@@ -502,168 +523,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D55858-6FAC-4A98-9878-983856C9915C}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/IDsMapping.xlsx
+++ b/IDsMapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roth_\Uni\1.Semester_WS1920\Algorithmen MMI\GitHub\Smart_Kitchen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0063704E-37E6-4F36-94B1-CD495EBEC405}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91B078B-FD2B-475F-BDEE-1E12D51A0D43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CCBDE61-6562-4498-99E4-B5911D7CAF8A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$B$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$C$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -154,6 +154,36 @@
   </si>
   <si>
     <t>Teigschaber</t>
+  </si>
+  <si>
+    <t>103022550827</t>
+  </si>
+  <si>
+    <t>987535843987</t>
+  </si>
+  <si>
+    <t>786142748451</t>
+  </si>
+  <si>
+    <t>796112435620</t>
+  </si>
+  <si>
+    <t>1064020239013</t>
+  </si>
+  <si>
+    <t>39911334407</t>
+  </si>
+  <si>
+    <t>995451166718</t>
+  </si>
+  <si>
+    <t>858500718555</t>
+  </si>
+  <si>
+    <t>855499759477</t>
+  </si>
+  <si>
+    <t>718631362413</t>
   </si>
 </sst>
 </file>
@@ -525,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D55858-6FAC-4A98-9878-983856C9915C}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="A1:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,7 +693,9 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
@@ -672,7 +704,9 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
@@ -681,7 +715,9 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
@@ -690,7 +726,9 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
@@ -699,7 +737,9 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
@@ -713,7 +753,9 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
@@ -722,7 +764,9 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
@@ -731,7 +775,9 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
@@ -740,7 +786,9 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
@@ -749,7 +797,9 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="B27" s="3" t="s">
         <v>39</v>
       </c>

--- a/IDsMapping.xlsx
+++ b/IDsMapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roth_\Uni\1.Semester_WS1920\Algorithmen MMI\GitHub\Smart_Kitchen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91B078B-FD2B-475F-BDEE-1E12D51A0D43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413FE719-46A0-427C-85B2-4BAFDD350CC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CCBDE61-6562-4498-99E4-B5911D7CAF8A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{3CCBDE61-6562-4498-99E4-B5911D7CAF8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D55858-6FAC-4A98-9878-983856C9915C}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="A1:C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,7 +617,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>27</v>
